--- a/biology/Botanique/Potaye/Potaye.xlsx
+++ b/biology/Botanique/Potaye/Potaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La potaye est, en Gaume, un mets unique qui se rapproche de la soupe, mais présente plus de consistance ; elle s'apparente à la potée.
 </t>
@@ -511,7 +523,9 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'en existe pas de recette typique, la ménagère utilisant ce dont elle dispose en matière de légumes et de viande ; la pomme de terre y est cependant presque toujours présente.
 Les ingrédients peuvent être placés dans de l'eau froide ou bouillante et l'on veille, pendant toute la cuisson, à maintenir la préparation recouverte de 2 cm d'eau.
@@ -543,9 +557,11 @@
           <t>Légumes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les légumes les plus fréquemment utilisés sont le chou frisé, le chou-pin[1], les haricots secs et les pois secs, les haricots verts, les carottes et les poireaux, les navets, le céleri.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les légumes les plus fréquemment utilisés sont le chou frisé, le chou-pin, les haricots secs et les pois secs, les haricots verts, les carottes et les poireaux, les navets, le céleri.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Viandes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour la viande, on utilise le porc : le lard frais, salé ou fumé, le pied, l'oreille ou le poumon, la plate-côte salée, la crosse de jambon, fumée ou non, l'andouille, la saucisse fumée, le jambonneau[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la viande, on utilise le porc : le lard frais, salé ou fumé, le pied, l'oreille ou le poumon, la plate-côte salée, la crosse de jambon, fumée ou non, l'andouille, la saucisse fumée, le jambonneau.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La potaye peut se manger réchauffée, participant ainsi à la cuisine de restes.
 </t>
